--- a/Museum_indoors_small.xlsx
+++ b/Museum_indoors_small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batra\Documents\Emily Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto\OneDrive\Documents\Emily_Capstone\Museum_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56795864-89C9-40AF-B7C7-7DD099A0D128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD01E878-1576-4D01-B38D-FED276886F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>belly_to_throat</t>
   </si>
   <si>
-    <t>munia_ventral_5_2024-08-05_12-10-31</t>
-  </si>
-  <si>
     <t>breast_light</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>belly_full</t>
   </si>
   <si>
-    <t>woodpecker_ventral_14_2024-08-05_13-52-12</t>
-  </si>
-  <si>
     <t>crown</t>
   </si>
   <si>
@@ -157,34 +151,40 @@
     <t>back_full</t>
   </si>
   <si>
-    <t>house.finch_ventral_2_2024-08-05_12-06-42</t>
+    <t>Lonchura.punctulata_ventral_5_2024-08-05_12-10-31</t>
   </si>
   <si>
-    <t>fiery.throated.hummingbird_ventral_3_2024-08-05_12-08-33</t>
+    <t>Panterpe.insignis_ventral_3_2024-08-05_12-08-33</t>
   </si>
   <si>
-    <t>alan's.hummingbird_ventral_4_2024-08-05_12-09-26</t>
+    <t>Selasphorus.sasin_ventral_4_2024-08-05_12-09-26</t>
   </si>
   <si>
-    <t>palm.tanager_ventral_6_2024-08-05_12-11-31</t>
+    <t>Campylorhyncus.brunneicapillus_ventral_13_2024-08-05_13-51-41</t>
   </si>
   <si>
-    <t>cactus.wren_ventral_13_2024-08-05_13-51-41</t>
+    <t>Picoides.nuttallii_ventral_14_2024-08-05_13-52-12</t>
   </si>
   <si>
-    <t>sliver.beaked.tanager_ventral_12_2024-08-05_13-50-39</t>
+    <t>Haemorhous.mexicanus_ventral_2_2024-08-05_12-06-42</t>
   </si>
   <si>
-    <t>summer.tanager_ventral_11_2024-08-05_13-50-07</t>
+    <t>Ramphocelus.nigrogularis_ventral_8_2024-08-05_12-13-11</t>
   </si>
   <si>
-    <t>crimson.tanager_dorsal_9_2024-08-05_12-14-24</t>
+    <t>Ramphocelus.nigrogularis_dorsal_9_2024-08-05_12-14-24</t>
   </si>
   <si>
-    <t>crimson.tanager_ventral_8_2024-08-05_12-13-11</t>
+    <t>Ramphocelus.carbo_ventral_12_2024-08-05_13-50-39</t>
   </si>
   <si>
-    <t>small.ground.finch_ventral_7_2024-08-05_12-12-33</t>
+    <t>Thraupis.palmarum_ventral_6_2024-08-05_12-11-31</t>
+  </si>
+  <si>
+    <t>Piranga.rubra_ventral_11_2024-08-05_13-50-07</t>
+  </si>
+  <si>
+    <t>Geospiza.fuliginosa_ventral_7_2024-08-05_12-12-33</t>
   </si>
 </sst>
 </file>
@@ -555,16 +555,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:MB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -589,7 +589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:340" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>20</v>
       </c>
@@ -597,7 +597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2623,9 +2623,9 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -3636,9 +3636,9 @@
         <v>6.6271625459194183E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -4649,9 +4649,9 @@
         <v>7.1759723126888275E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -5662,9 +5662,9 @@
         <v>3.7226129323244095E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6675,9 +6675,9 @@
         <v>5.0382893532514572E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -7688,9 +7688,9 @@
         <v>3.5548295825719833E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -8701,9 +8701,9 @@
         <v>0.11418092250823975</v>
       </c>
     </row>
-    <row r="13" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -9714,9 +9714,9 @@
         <v>3.8713838905096054E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -10727,12 +10727,12 @@
         <v>5.9788357466459274E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
       <c r="C15">
         <v>266</v>
@@ -11740,12 +11740,12 @@
         <v>3.0259180814027786E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>256</v>
@@ -12753,12 +12753,12 @@
         <v>1.9229397177696228E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>236</v>
@@ -13766,12 +13766,12 @@
         <v>0.10522834956645966</v>
       </c>
     </row>
-    <row r="18" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>229</v>
@@ -14779,12 +14779,12 @@
         <v>7.0266202092170715E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>248</v>
@@ -15792,9 +15792,9 @@
         <v>3.7139348685741425E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -16805,12 +16805,12 @@
         <v>1.4990521594882011E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>262</v>
@@ -17818,12 +17818,12 @@
         <v>6.54473677277565E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>231</v>
@@ -18831,12 +18831,12 @@
         <v>0.1988459974527359</v>
       </c>
     </row>
-    <row r="23" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>219</v>
@@ -19844,12 +19844,12 @@
         <v>0.20139187574386597</v>
       </c>
     </row>
-    <row r="24" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>291</v>
@@ -20857,9 +20857,9 @@
         <v>0.17138093709945679</v>
       </c>
     </row>
-    <row r="25" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -21870,9 +21870,9 @@
         <v>5.1857884973287582E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -22883,12 +22883,12 @@
         <v>8.4887184202671051E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>193</v>
@@ -23896,12 +23896,12 @@
         <v>4.193389043211937E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>200</v>
@@ -24909,12 +24909,12 @@
         <v>3.9908356964588165E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>179</v>
@@ -25922,12 +25922,12 @@
         <v>0.20139363408088684</v>
       </c>
     </row>
-    <row r="30" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>210</v>
@@ -26935,12 +26935,12 @@
         <v>4.9467150121927261E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
         <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
       </c>
       <c r="C31">
         <v>203</v>
@@ -27948,12 +27948,12 @@
         <v>0.13399434089660645</v>
       </c>
     </row>
-    <row r="32" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>198</v>
@@ -28961,12 +28961,12 @@
         <v>5.3178686648607254E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:340" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:340" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>158</v>
